--- a/MiniERP/Resources/매입전표.xlsx
+++ b/MiniERP/Resources/매입전표.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GDC9\Desktop\오늘 분량\xml변환완료(김태우)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9E5455-64CD-4750-B0E2-CF22F0C86207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16890" windowHeight="4935" xr2:uid="{5D65B243-491A-4A28-8FDE-1BE74986DDB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16890" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -125,12 +119,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-412]yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ \(aaa\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +346,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,15 +391,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -428,9 +425,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -545,7 +539,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -739,305 +733,305 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9474CD-DFB0-4955-A41D-45B44FFBC2E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4:AL8"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="38" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:38" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="Y2" s="20" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="Y2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="26" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="26" t="s">
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="28"/>
-    </row>
-    <row r="3" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="31"/>
-    </row>
-    <row r="4" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="8"/>
-    </row>
-    <row r="5" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="11"/>
-    </row>
-    <row r="6" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="11"/>
-    </row>
-    <row r="7" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="11"/>
-    </row>
-    <row r="8" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="14"/>
-    </row>
-    <row r="9" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="29"/>
+    </row>
+    <row r="3" spans="2:38" ht="15" customHeight="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="32"/>
+    </row>
+    <row r="4" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="12"/>
+    </row>
+    <row r="5" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="15"/>
+    </row>
+    <row r="6" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="15"/>
+    </row>
+    <row r="7" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="15"/>
+    </row>
+    <row r="8" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="18"/>
+    </row>
+    <row r="9" spans="2:38" ht="11.25" customHeight="1"/>
+    <row r="10" spans="2:38" ht="11.25" customHeight="1">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="2:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="2:38" ht="11.25" customHeight="1">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="AB11" s="10" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="AB11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="10"/>
+      <c r="AC11" s="14"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -1048,7 +1042,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:38" ht="15" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1073,897 +1067,900 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:38" ht="15" customHeight="1">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="17" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="32" t="s">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32" t="s">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-    </row>
-    <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-    </row>
-    <row r="15" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-    </row>
-    <row r="16" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-    </row>
-    <row r="17" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+    </row>
+    <row r="14" spans="2:38" ht="15" customHeight="1">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+    </row>
+    <row r="15" spans="2:38" ht="15" customHeight="1">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+    </row>
+    <row r="16" spans="2:38" ht="15" customHeight="1">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+    </row>
+    <row r="17" spans="2:38" ht="15" customHeight="1">
+      <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="32" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="7" t="s">
+      <c r="R17" s="9"/>
+      <c r="S17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7" t="s">
+      <c r="T17" s="11"/>
+      <c r="U17" s="11">
+        <f>SUM(AC20:AH34)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AL17" s="8"/>
-    </row>
-    <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="14"/>
-    </row>
-    <row r="19" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
+      <c r="AL17" s="12"/>
+    </row>
+    <row r="18" spans="2:38" ht="15" customHeight="1">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="18"/>
+    </row>
+    <row r="19" spans="2:38" ht="15" customHeight="1">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32" t="s">
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="17" t="s">
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="17" t="s">
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="19"/>
-    </row>
-    <row r="20" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="19"/>
-    </row>
-    <row r="21" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="19"/>
-    </row>
-    <row r="22" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="19"/>
-    </row>
-    <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="18"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="18"/>
-      <c r="AL23" s="19"/>
-    </row>
-    <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="18"/>
-      <c r="AL24" s="19"/>
-    </row>
-    <row r="25" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="18"/>
-      <c r="AK25" s="18"/>
-      <c r="AL25" s="19"/>
-    </row>
-    <row r="26" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="19"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="19"/>
-    </row>
-    <row r="27" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="18"/>
-      <c r="AK27" s="18"/>
-      <c r="AL27" s="19"/>
-    </row>
-    <row r="28" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="19"/>
-    </row>
-    <row r="29" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="19"/>
-    </row>
-    <row r="30" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="19"/>
-    </row>
-    <row r="31" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="19"/>
-    </row>
-    <row r="32" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="18"/>
-      <c r="AL32" s="19"/>
-    </row>
-    <row r="33" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="19"/>
-    </row>
-    <row r="34" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="19"/>
-      <c r="AI34" s="17"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="19"/>
-    </row>
-    <row r="35" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="8"/>
+    </row>
+    <row r="20" spans="2:38" ht="15" customHeight="1">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="8"/>
+    </row>
+    <row r="21" spans="2:38" ht="15" customHeight="1">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="8"/>
+    </row>
+    <row r="22" spans="2:38" ht="15" customHeight="1">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="8"/>
+    </row>
+    <row r="23" spans="2:38" ht="15" customHeight="1">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="8"/>
+    </row>
+    <row r="24" spans="2:38" ht="15" customHeight="1">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="8"/>
+    </row>
+    <row r="25" spans="2:38" ht="15" customHeight="1">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="8"/>
+    </row>
+    <row r="26" spans="2:38" ht="15" customHeight="1">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="8"/>
+    </row>
+    <row r="27" spans="2:38" ht="15" customHeight="1">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="8"/>
+    </row>
+    <row r="28" spans="2:38" ht="15" customHeight="1">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="8"/>
+    </row>
+    <row r="29" spans="2:38" ht="15" customHeight="1">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="8"/>
+    </row>
+    <row r="30" spans="2:38" ht="15" customHeight="1">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="8"/>
+    </row>
+    <row r="31" spans="2:38" ht="15" customHeight="1">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="8"/>
+    </row>
+    <row r="32" spans="2:38" ht="15" customHeight="1">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="8"/>
+    </row>
+    <row r="33" spans="2:38" ht="15" customHeight="1">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="8"/>
+    </row>
+    <row r="34" spans="2:38" ht="15" customHeight="1">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="8"/>
+    </row>
+    <row r="35" spans="2:38" ht="15" customHeight="1">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1988,7 +1985,7 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
     </row>
-    <row r="36" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:38" ht="15" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2013,7 +2010,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
     </row>
-    <row r="37" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:38" ht="15" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2038,7 +2035,7 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
     </row>
-    <row r="38" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:38" ht="15" customHeight="1">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2063,7 +2060,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
     </row>
-    <row r="39" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:38" ht="15" customHeight="1">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2088,7 +2085,7 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
     </row>
-    <row r="40" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:38" ht="15" customHeight="1">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2113,7 +2110,7 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
     </row>
-    <row r="41" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:38" ht="15" customHeight="1">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2138,7 +2135,7 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
     </row>
-    <row r="42" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:38" ht="15" customHeight="1">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2163,7 +2160,7 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:38" ht="15" customHeight="1">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2188,7 +2185,7 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:38" ht="15" customHeight="1">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2213,7 +2210,7 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:38" ht="15" customHeight="1">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2238,7 +2235,7 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:38" ht="15" customHeight="1">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2263,7 +2260,7 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:38" ht="15" customHeight="1">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2288,7 +2285,7 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:38" ht="15" customHeight="1">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2313,7 +2310,7 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:24" ht="15" customHeight="1">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2338,7 +2335,7 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:24" ht="15" customHeight="1">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2363,7 +2360,7 @@
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:24" ht="15" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2388,7 +2385,7 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:24" ht="15" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2413,7 +2410,7 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:24" ht="15" customHeight="1">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2438,7 +2435,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:24" ht="15" customHeight="1">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2463,7 +2460,7 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:24" ht="15" customHeight="1">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2488,7 +2485,7 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:24" ht="15" customHeight="1">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2513,7 +2510,7 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:24" ht="15" customHeight="1">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2538,7 +2535,7 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
     </row>
-    <row r="58" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:24" ht="15" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2563,7 +2560,7 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:24" ht="15" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2588,7 +2585,7 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:24" ht="15" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2613,7 +2610,7 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:24" ht="15" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2638,7 +2635,7 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
     </row>
-    <row r="62" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:24" ht="15" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2665,6 +2662,129 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="AG4:AL8"/>
+    <mergeCell ref="B2:U8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Y2:Z8"/>
+    <mergeCell ref="AA2:AF3"/>
+    <mergeCell ref="AA4:AF8"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="B14:F16"/>
+    <mergeCell ref="G14:K16"/>
+    <mergeCell ref="L14:P16"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="Z13:AL13"/>
+    <mergeCell ref="Z14:AL16"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="Q14:Y16"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="AK17:AL18"/>
+    <mergeCell ref="G17:P18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:AJ18"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:V20"/>
+    <mergeCell ref="W20:AB20"/>
+    <mergeCell ref="AC20:AH20"/>
+    <mergeCell ref="AI20:AL20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="AI21:AL21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="AI22:AL22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AC23:AH23"/>
+    <mergeCell ref="AI23:AL23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="AC24:AH24"/>
+    <mergeCell ref="AI24:AL24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="AC25:AH25"/>
+    <mergeCell ref="AI25:AL25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="AC26:AH26"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="AC27:AH27"/>
+    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AB28"/>
+    <mergeCell ref="AC28:AH28"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="AC29:AH29"/>
+    <mergeCell ref="AI29:AL29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AB30"/>
+    <mergeCell ref="AC30:AH30"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AB29"/>
+    <mergeCell ref="AC31:AH31"/>
+    <mergeCell ref="AI31:AL31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="W32:AB32"/>
+    <mergeCell ref="AC32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="W31:AB31"/>
     <mergeCell ref="AC33:AH33"/>
     <mergeCell ref="AI33:AL33"/>
     <mergeCell ref="B34:F34"/>
@@ -2679,129 +2799,6 @@
     <mergeCell ref="L33:P33"/>
     <mergeCell ref="Q33:V33"/>
     <mergeCell ref="W33:AB33"/>
-    <mergeCell ref="AC31:AH31"/>
-    <mergeCell ref="AI31:AL31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="W32:AB32"/>
-    <mergeCell ref="AC32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="AC29:AH29"/>
-    <mergeCell ref="AI29:AL29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AB30"/>
-    <mergeCell ref="AC30:AH30"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AB29"/>
-    <mergeCell ref="AC27:AH27"/>
-    <mergeCell ref="AI27:AL27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AB28"/>
-    <mergeCell ref="AC28:AH28"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="AC25:AH25"/>
-    <mergeCell ref="AI25:AL25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="AC26:AH26"/>
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="AC23:AH23"/>
-    <mergeCell ref="AI23:AL23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="AC24:AH24"/>
-    <mergeCell ref="AI24:AL24"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="AI21:AL21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="AI22:AL22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="Q19:V19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:V20"/>
-    <mergeCell ref="W20:AB20"/>
-    <mergeCell ref="AC20:AH20"/>
-    <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B14:F16"/>
-    <mergeCell ref="G14:K16"/>
-    <mergeCell ref="L14:P16"/>
-    <mergeCell ref="B17:F18"/>
-    <mergeCell ref="Z13:AL13"/>
-    <mergeCell ref="Z14:AL16"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="Q14:Y16"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="AK17:AL18"/>
-    <mergeCell ref="G17:P18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:AJ18"/>
-    <mergeCell ref="AG4:AL8"/>
-    <mergeCell ref="B2:U8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Y2:Z8"/>
-    <mergeCell ref="AA2:AF3"/>
-    <mergeCell ref="AA4:AF8"/>
-    <mergeCell ref="AG2:AL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MiniERP/Resources/매입전표.xlsx
+++ b/MiniERP/Resources/매입전표.xlsx
@@ -120,9 +120,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-412]yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;\ dddd"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -327,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +347,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,42 +387,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +423,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20:AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
@@ -754,284 +773,284 @@
   <sheetData>
     <row r="1" spans="2:38" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="Y2" s="21" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="Y2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="27" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="27" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="29"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="28"/>
     </row>
     <row r="3" spans="2:38" ht="15" customHeight="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="32"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="31"/>
     </row>
     <row r="4" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="8"/>
     </row>
     <row r="5" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="11"/>
     </row>
     <row r="7" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="11"/>
     </row>
     <row r="8" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="14"/>
     </row>
     <row r="9" spans="2:38" ht="11.25" customHeight="1"/>
     <row r="10" spans="2:38" ht="11.25" customHeight="1">
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="2:38" ht="11.25" customHeight="1">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="AB11" s="14" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="AB11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC11" s="14"/>
+      <c r="AC11" s="10"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -1068,897 +1087,897 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="2:38" ht="15" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="6" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9" t="s">
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9" t="s">
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
     </row>
     <row r="14" spans="2:38" ht="15" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
     </row>
     <row r="15" spans="2:38" ht="15" customHeight="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
     </row>
     <row r="16" spans="2:38" ht="15" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
     </row>
     <row r="17" spans="2:38" ht="15" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="9" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="11" t="s">
+      <c r="R17" s="32"/>
+      <c r="S17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11">
+      <c r="T17" s="7"/>
+      <c r="U17" s="33">
         <f>SUM(AC20:AH34)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11" t="s">
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AL17" s="12"/>
+      <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="18"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="14"/>
     </row>
     <row r="19" spans="2:38" ht="15" customHeight="1">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9" t="s">
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9" t="s">
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="6" t="s">
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="6" t="s">
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="8"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="19"/>
     </row>
     <row r="20" spans="2:38" ht="15" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="8"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="19"/>
     </row>
     <row r="21" spans="2:38" ht="15" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="8"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="19"/>
     </row>
     <row r="22" spans="2:38" ht="15" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="8"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="19"/>
     </row>
     <row r="23" spans="2:38" ht="15" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="8"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="19"/>
     </row>
     <row r="24" spans="2:38" ht="15" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="8"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="19"/>
     </row>
     <row r="25" spans="2:38" ht="15" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="8"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="19"/>
     </row>
     <row r="26" spans="2:38" ht="15" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="8"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="36"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="19"/>
     </row>
     <row r="27" spans="2:38" ht="15" customHeight="1">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="8"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="19"/>
     </row>
     <row r="28" spans="2:38" ht="15" customHeight="1">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="8"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="19"/>
     </row>
     <row r="29" spans="2:38" ht="15" customHeight="1">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="8"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="19"/>
     </row>
     <row r="30" spans="2:38" ht="15" customHeight="1">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="8"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="19"/>
     </row>
     <row r="31" spans="2:38" ht="15" customHeight="1">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="8"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="19"/>
     </row>
     <row r="32" spans="2:38" ht="15" customHeight="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="8"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="36"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="18"/>
+      <c r="AK32" s="18"/>
+      <c r="AL32" s="19"/>
     </row>
     <row r="33" spans="2:38" ht="15" customHeight="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="8"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="19"/>
     </row>
     <row r="34" spans="2:38" ht="15" customHeight="1">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="8"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="19"/>
     </row>
     <row r="35" spans="2:38" ht="15" customHeight="1">
       <c r="B35" s="2"/>
@@ -2662,31 +2681,104 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="AG4:AL8"/>
-    <mergeCell ref="B2:U8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Y2:Z8"/>
-    <mergeCell ref="AA2:AF3"/>
-    <mergeCell ref="AA4:AF8"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="B14:F16"/>
-    <mergeCell ref="G14:K16"/>
-    <mergeCell ref="L14:P16"/>
-    <mergeCell ref="B17:F18"/>
-    <mergeCell ref="Z13:AL13"/>
-    <mergeCell ref="Z14:AL16"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="Q14:Y16"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="AK17:AL18"/>
-    <mergeCell ref="G17:P18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:AJ18"/>
+    <mergeCell ref="AC33:AH33"/>
+    <mergeCell ref="AI33:AL33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:V34"/>
+    <mergeCell ref="W34:AB34"/>
+    <mergeCell ref="AC34:AH34"/>
+    <mergeCell ref="AI34:AL34"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:V33"/>
+    <mergeCell ref="W33:AB33"/>
+    <mergeCell ref="AC31:AH31"/>
+    <mergeCell ref="AI31:AL31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:V32"/>
+    <mergeCell ref="W32:AB32"/>
+    <mergeCell ref="AC32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:V31"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="AC29:AH29"/>
+    <mergeCell ref="AI29:AL29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:V30"/>
+    <mergeCell ref="W30:AB30"/>
+    <mergeCell ref="AC30:AH30"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="W29:AB29"/>
+    <mergeCell ref="AC27:AH27"/>
+    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:V28"/>
+    <mergeCell ref="W28:AB28"/>
+    <mergeCell ref="AC28:AH28"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:V27"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="AC25:AH25"/>
+    <mergeCell ref="AI25:AL25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:V26"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="AC26:AH26"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="W25:AB25"/>
+    <mergeCell ref="AC23:AH23"/>
+    <mergeCell ref="AI23:AL23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:V24"/>
+    <mergeCell ref="W24:AB24"/>
+    <mergeCell ref="AC24:AH24"/>
+    <mergeCell ref="AI24:AL24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:V23"/>
+    <mergeCell ref="W23:AB23"/>
+    <mergeCell ref="AC21:AH21"/>
+    <mergeCell ref="AI21:AL21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:V22"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="AC22:AH22"/>
+    <mergeCell ref="AI22:AL22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:V21"/>
+    <mergeCell ref="W21:AB21"/>
     <mergeCell ref="AI19:AL19"/>
     <mergeCell ref="AC19:AH19"/>
     <mergeCell ref="W19:AB19"/>
@@ -2701,104 +2793,31 @@
     <mergeCell ref="AC20:AH20"/>
     <mergeCell ref="AI20:AL20"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="AC21:AH21"/>
-    <mergeCell ref="AI21:AL21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:V22"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="AC22:AH22"/>
-    <mergeCell ref="AI22:AL22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:V21"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AC23:AH23"/>
-    <mergeCell ref="AI23:AL23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:V24"/>
-    <mergeCell ref="W24:AB24"/>
-    <mergeCell ref="AC24:AH24"/>
-    <mergeCell ref="AI24:AL24"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:V23"/>
-    <mergeCell ref="W23:AB23"/>
-    <mergeCell ref="AC25:AH25"/>
-    <mergeCell ref="AI25:AL25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:V26"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="AC26:AH26"/>
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="W25:AB25"/>
-    <mergeCell ref="AC27:AH27"/>
-    <mergeCell ref="AI27:AL27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:V28"/>
-    <mergeCell ref="W28:AB28"/>
-    <mergeCell ref="AC28:AH28"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:V27"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="AC29:AH29"/>
-    <mergeCell ref="AI29:AL29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:V30"/>
-    <mergeCell ref="W30:AB30"/>
-    <mergeCell ref="AC30:AH30"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="W29:AB29"/>
-    <mergeCell ref="AC31:AH31"/>
-    <mergeCell ref="AI31:AL31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:V32"/>
-    <mergeCell ref="W32:AB32"/>
-    <mergeCell ref="AC32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:V31"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="AC33:AH33"/>
-    <mergeCell ref="AI33:AL33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="W34:AB34"/>
-    <mergeCell ref="AC34:AH34"/>
-    <mergeCell ref="AI34:AL34"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:V33"/>
-    <mergeCell ref="W33:AB33"/>
+    <mergeCell ref="B14:F16"/>
+    <mergeCell ref="G14:K16"/>
+    <mergeCell ref="L14:P16"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="Z13:AL13"/>
+    <mergeCell ref="Z14:AL16"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="Q14:Y16"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="AK17:AL18"/>
+    <mergeCell ref="G17:P18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:AJ18"/>
+    <mergeCell ref="AG4:AL8"/>
+    <mergeCell ref="B2:U8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Y2:Z8"/>
+    <mergeCell ref="AA2:AF3"/>
+    <mergeCell ref="AA4:AF8"/>
+    <mergeCell ref="AG2:AL3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
